--- a/11-16-25 to 11-22-25 Madison Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Madison Schedule.xlsx
@@ -3803,7 +3803,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10:30</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>

--- a/11-16-25 to 11-22-25 Madison Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Madison Schedule.xlsx
@@ -3233,7 +3233,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">

--- a/11-16-25 to 11-22-25 Madison Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Madison Schedule.xlsx
@@ -2389,7 +2389,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>*IL Meet is 6:15 am at IL Office</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>

--- a/11-16-25 to 11-22-25 Madison Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Madison Schedule.xlsx
@@ -792,7 +792,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>LBS EXPRESS MART, MACHESNEY PARK</t>
+          <t>HARRY'S MOBIL, BELOIT - RIVERSIDE</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -839,7 +839,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>8320 N 2ND ST</t>
+          <t>2405 S RIVERSIDE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -886,7 +886,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qbg8FFvghhF62dgc8</t>
+          <t>https://goo.gl/maps/TYGRw8Jk6TJmec1V8</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -984,7 +984,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -1252,7 +1252,7 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1402,7 +1402,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>HARRY'S MOBIL, BELOIT - RIVERSIDE</t>
+          <t>KELLEY #67, MT MORRIS MOBIL</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1483,7 +1483,7 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2405 S RIVERSIDE</t>
+          <t>214 E HITT ST</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TYGRw8Jk6TJmec1V8</t>
+          <t>https://goo.gl/maps/6pXKytvpreN2</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1643,7 +1643,11 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1707,21 +1711,13 @@
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*IL Meet is 5:45 am at IL Office</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1783,21 +1779,9 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1851,9 +1835,22 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1907,8 +1904,16 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1967,10 +1972,14 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2031,10 +2040,14 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2083,13 +2096,22 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>KELLEY #67, MT MORRIS MOBIL</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2123,11 +2145,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>214 E HITT ST</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2162,11 +2180,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/6pXKytvpreN2</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2220,7 +2234,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2275,7 +2289,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2316,7 +2330,11 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>CONDON OIL #120, PRINCETON</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2354,22 +2372,13 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>811 OLD GREEN LAKE RD</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2410,14 +2419,10 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>https://goo.gl/maps/zAgcCGgp6xC2</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2457,14 +2462,10 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2513,14 +2514,10 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2577,22 +2574,13 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>CONDON OIL #220, GREEN LAKE</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2638,7 +2626,11 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>514 MILL ST</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2673,7 +2665,11 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/YpMw63DhajE2</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2712,11 +2708,7 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2754,13 +2746,21 @@
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2809,13 +2809,21 @@
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>CONDON OIL #120, PRINCETON</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2866,11 +2874,7 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>811 OLD GREEN LAKE RD</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2922,11 +2926,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/zAgcCGgp6xC2</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2967,7 +2967,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3057,7 +3057,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>CONDON OIL #220, GREEN LAKE</t>
+          <t>KELLEY #16, CEDARVILLE MOBIL</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3104,7 +3104,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>514 MILL ST</t>
+          <t>10 S STEPHENSON</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3147,7 +3147,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YpMw63DhajE2</t>
+          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3200,7 +3200,11 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3246,21 +3250,13 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*IL Meet is 5:30 am at IL Office</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3305,21 +3301,9 @@
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3360,9 +3344,21 @@
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3407,9 +3403,22 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3450,10 +3459,14 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3501,10 +3514,14 @@
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3552,13 +3569,21 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>KELLEY #16, CEDARVILLE MOBIL</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3604,11 +3629,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>10 S STEPHENSON</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3655,11 +3676,7 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -3698,11 +3715,7 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3765,11 +3778,7 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
@@ -3882,21 +3891,9 @@
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -3937,22 +3934,9 @@
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -3993,16 +3977,8 @@
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4048,16 +4024,8 @@
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -4103,21 +4071,9 @@
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>

--- a/11-16-25 to 11-22-25 Madison Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Madison Schedule.xlsx
@@ -3415,8 +3415,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3469,7 +3468,12 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>

--- a/11-16-25 to 11-22-25 Madison Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Madison Schedule.xlsx
@@ -3253,7 +3253,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
